--- a/data/rice/export_th/ex2561.xlsx
+++ b/data/rice/export_th/ex2561.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\data\rice\export_th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C77908-0E9B-49B1-BFCF-35A3A5089D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891397C6-063B-42B9-AD69-396274C2E044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,30 +336,6 @@
     <t>ปี 2561</t>
   </si>
   <si>
-    <t>RHXB10FO</t>
-  </si>
-  <si>
-    <t>RHXS10FO</t>
-  </si>
-  <si>
-    <t>RHXB10FN</t>
-  </si>
-  <si>
-    <t>RHXS10FN</t>
-  </si>
-  <si>
-    <t>RHXB00GO</t>
-  </si>
-  <si>
-    <t>RHXS00GO</t>
-  </si>
-  <si>
-    <t>RHXB00GN</t>
-  </si>
-  <si>
-    <t>RHXS00GN</t>
-  </si>
-  <si>
     <t>RHXBA1DU</t>
   </si>
   <si>
@@ -514,6 +490,30 @@
   </si>
   <si>
     <t>RPXSA1GU</t>
+  </si>
+  <si>
+    <t>RHXB00AO</t>
+  </si>
+  <si>
+    <t>RHXS00AO</t>
+  </si>
+  <si>
+    <t>RHXB00AN</t>
+  </si>
+  <si>
+    <t>RHXS00AN</t>
+  </si>
+  <si>
+    <t>RHXB00BO</t>
+  </si>
+  <si>
+    <t>RHXS00BO</t>
+  </si>
+  <si>
+    <t>RHXB00BN</t>
+  </si>
+  <si>
+    <t>RHXS00BN</t>
   </si>
 </sst>
 </file>
@@ -5678,10 +5678,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="6" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="7" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="8" spans="1:17" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="9" spans="1:17" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="10" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="11" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="12" spans="1:17" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="13" spans="1:17" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="15" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="16" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -10952,10 +10952,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -11124,7 +11124,7 @@
     </row>
     <row r="8" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="9" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -11202,7 +11202,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -11275,7 +11275,7 @@
     </row>
     <row r="12" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="13" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -11362,7 +11362,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -11397,7 +11397,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -11428,7 +11428,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -11494,7 +11494,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -11575,7 +11575,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -11763,7 +11763,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -11829,7 +11829,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -11860,7 +11860,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -11895,7 +11895,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -11961,7 +11961,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -12205,7 +12205,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -12240,7 +12240,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -12352,7 +12352,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -12387,7 +12387,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -12468,7 +12468,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -12514,7 +12514,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -12549,7 +12549,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -12580,7 +12580,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -12646,7 +12646,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -12681,7 +12681,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -12762,7 +12762,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -12828,7 +12828,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -12960,7 +12960,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -13026,7 +13026,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -13057,7 +13057,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -13092,7 +13092,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -13138,7 +13138,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -13173,7 +13173,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -16375,10 +16375,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -16475,7 +16475,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -16558,7 +16558,7 @@
     </row>
     <row r="8" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -16602,7 +16602,7 @@
     </row>
     <row r="9" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -16641,7 +16641,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -16685,7 +16685,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -16724,7 +16724,7 @@
     </row>
     <row r="12" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -16765,7 +16765,7 @@
     </row>
     <row r="13" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -16816,7 +16816,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -16854,7 +16854,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -16925,7 +16925,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -16958,7 +16958,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -16996,7 +16996,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -17044,7 +17044,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -17085,7 +17085,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -17136,7 +17136,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -17245,7 +17245,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -17278,7 +17278,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -17316,7 +17316,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -17349,7 +17349,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -17420,7 +17420,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -17458,7 +17458,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -17491,7 +17491,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -17529,7 +17529,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -17577,7 +17577,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -17615,7 +17615,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -17686,7 +17686,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -17719,7 +17719,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -17757,7 +17757,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -17805,7 +17805,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -17843,7 +17843,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -17876,7 +17876,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -17914,7 +17914,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -18000,7 +18000,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -18048,7 +18048,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -18086,7 +18086,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -18157,7 +18157,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -18190,7 +18190,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -18228,7 +18228,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -18276,7 +18276,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -18314,7 +18314,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -18385,7 +18385,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -18418,7 +18418,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -18456,7 +18456,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -18489,7 +18489,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -18560,7 +18560,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -18598,7 +18598,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -18631,7 +18631,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -18669,7 +18669,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -18717,7 +18717,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -18755,7 +18755,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -21959,10 +21959,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -22087,7 +22087,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -22116,7 +22116,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -22148,7 +22148,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -22177,7 +22177,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -22209,7 +22209,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -22238,7 +22238,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -22273,7 +22273,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -22320,7 +22320,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -22352,7 +22352,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -22381,7 +22381,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -22413,7 +22413,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -22442,7 +22442,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -22474,7 +22474,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -22518,7 +22518,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -22553,7 +22553,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -22600,7 +22600,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -22632,7 +22632,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -22661,7 +22661,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -22693,7 +22693,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -22722,7 +22722,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -22754,7 +22754,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -22783,7 +22783,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -22815,7 +22815,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -22844,7 +22844,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -22876,7 +22876,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -22905,7 +22905,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -22937,7 +22937,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -22981,7 +22981,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -23013,7 +23013,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -23042,7 +23042,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -23074,7 +23074,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -23103,7 +23103,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -23135,7 +23135,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -23179,7 +23179,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -23211,7 +23211,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -23240,7 +23240,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -23272,7 +23272,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -23316,7 +23316,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -23348,7 +23348,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -23392,7 +23392,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -23424,7 +23424,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -23453,7 +23453,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -23485,7 +23485,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -23514,7 +23514,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -23546,7 +23546,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -23590,7 +23590,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -23622,7 +23622,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -23651,7 +23651,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -23683,7 +23683,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -23712,7 +23712,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -23744,7 +23744,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -23773,7 +23773,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -23805,7 +23805,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -23834,7 +23834,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -23866,7 +23866,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -23895,7 +23895,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -23927,7 +23927,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -23971,7 +23971,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -24003,7 +24003,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -27204,7 +27204,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -27297,7 +27297,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -27329,7 +27329,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -27358,7 +27358,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -27390,7 +27390,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -27419,7 +27419,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -27451,7 +27451,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -27480,7 +27480,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -27515,7 +27515,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -27562,7 +27562,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -27594,7 +27594,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -27623,7 +27623,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -27655,7 +27655,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -27684,7 +27684,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -27716,7 +27716,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -27760,7 +27760,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -27795,7 +27795,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -27842,7 +27842,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -27874,7 +27874,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -27903,7 +27903,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -27935,7 +27935,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -27964,7 +27964,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -27996,7 +27996,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -28025,7 +28025,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -28057,7 +28057,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -28086,7 +28086,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -28118,7 +28118,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -28147,7 +28147,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -28179,7 +28179,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -28223,7 +28223,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -28255,7 +28255,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -28284,7 +28284,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -28316,7 +28316,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -28345,7 +28345,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -28377,7 +28377,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -28421,7 +28421,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -28482,7 +28482,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -28514,7 +28514,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -28558,7 +28558,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -28590,7 +28590,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -28634,7 +28634,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -28666,7 +28666,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -28695,7 +28695,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -28727,7 +28727,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -28756,7 +28756,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -28788,7 +28788,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -28832,7 +28832,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -28864,7 +28864,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -28893,7 +28893,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -28925,7 +28925,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -28954,7 +28954,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -28986,7 +28986,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -29015,7 +29015,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -29047,7 +29047,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -29076,7 +29076,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -29108,7 +29108,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -29137,7 +29137,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -29169,7 +29169,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -29213,7 +29213,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -29245,7 +29245,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -32447,7 +32447,7 @@
       <selection activeCell="B6" sqref="B6"/>
       <selection pane="topRight" activeCell="B6" sqref="B6"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -32542,7 +32542,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -32577,7 +32577,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -32608,7 +32608,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -32643,7 +32643,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -32674,7 +32674,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -32709,7 +32709,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -32740,7 +32740,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -32778,7 +32778,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -32827,7 +32827,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -32862,7 +32862,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -32893,7 +32893,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -32928,7 +32928,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -32959,7 +32959,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -32994,7 +32994,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -33040,7 +33040,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -33078,7 +33078,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -33127,7 +33127,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -33162,7 +33162,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -33193,7 +33193,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -33228,7 +33228,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -33259,7 +33259,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -33294,7 +33294,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -33325,7 +33325,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -33360,7 +33360,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -33391,7 +33391,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -33426,7 +33426,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -33457,7 +33457,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -33492,7 +33492,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -33538,7 +33538,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -33573,7 +33573,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -33604,7 +33604,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -33639,7 +33639,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -33670,7 +33670,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -33705,7 +33705,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -33751,7 +33751,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -33786,7 +33786,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -33817,7 +33817,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -33852,7 +33852,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -33898,7 +33898,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -33933,7 +33933,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -33979,7 +33979,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -34014,7 +34014,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -34045,7 +34045,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -34080,7 +34080,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -34111,7 +34111,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -34146,7 +34146,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -34192,7 +34192,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -34227,7 +34227,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -34258,7 +34258,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -34293,7 +34293,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -34324,7 +34324,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -34359,7 +34359,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -34390,7 +34390,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -34425,7 +34425,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -34456,7 +34456,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -34491,7 +34491,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -34522,7 +34522,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -34557,7 +34557,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -34603,7 +34603,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -34638,7 +34638,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -37842,10 +37842,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -37942,7 +37942,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -37980,7 +37980,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -38013,7 +38013,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -38051,7 +38051,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -38084,7 +38084,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -38122,7 +38122,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -38155,7 +38155,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -38196,7 +38196,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -38247,7 +38247,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -38285,7 +38285,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -38318,7 +38318,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -38356,7 +38356,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -38389,7 +38389,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -38427,7 +38427,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -38475,7 +38475,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -38516,7 +38516,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -38567,7 +38567,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -38605,7 +38605,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -38638,7 +38638,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -38676,7 +38676,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -38709,7 +38709,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -38747,7 +38747,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -38780,7 +38780,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -38818,7 +38818,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -38851,7 +38851,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -38889,7 +38889,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -38922,7 +38922,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -38960,7 +38960,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -39008,7 +39008,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -39046,7 +39046,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -39079,7 +39079,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -39117,7 +39117,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -39150,7 +39150,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -39188,7 +39188,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -39236,7 +39236,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -39274,7 +39274,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -39307,7 +39307,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -39345,7 +39345,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -39393,7 +39393,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -39431,7 +39431,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -39479,7 +39479,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -39517,7 +39517,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -39550,7 +39550,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -39588,7 +39588,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -39621,7 +39621,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -39659,7 +39659,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -39707,7 +39707,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -39745,7 +39745,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -39778,7 +39778,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -39816,7 +39816,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -39849,7 +39849,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -39887,7 +39887,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -39920,7 +39920,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -39958,7 +39958,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -39991,7 +39991,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -40029,7 +40029,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -40062,7 +40062,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -40100,7 +40100,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -40148,7 +40148,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -40186,7 +40186,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -43390,10 +43390,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -43488,7 +43488,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -43529,7 +43529,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -43566,7 +43566,7 @@
     </row>
     <row r="8" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -43607,7 +43607,7 @@
     </row>
     <row r="9" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -43644,7 +43644,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -43685,7 +43685,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -43716,7 +43716,7 @@
     </row>
     <row r="12" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -43754,7 +43754,7 @@
     </row>
     <row r="13" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -43803,7 +43803,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -43838,7 +43838,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -43869,7 +43869,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -43904,7 +43904,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -43935,7 +43935,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -43970,7 +43970,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -44016,7 +44016,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -44054,7 +44054,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -44103,7 +44103,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -44138,7 +44138,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -44169,7 +44169,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -44204,7 +44204,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -44235,7 +44235,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -44270,7 +44270,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -44301,7 +44301,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -44336,7 +44336,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -44367,7 +44367,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -44402,7 +44402,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -44433,7 +44433,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -44468,7 +44468,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -44514,7 +44514,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -44549,7 +44549,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -44580,7 +44580,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -44615,7 +44615,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -44646,7 +44646,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -44681,7 +44681,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -44727,7 +44727,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -44762,7 +44762,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -44793,7 +44793,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -44828,7 +44828,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -44874,7 +44874,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -44909,7 +44909,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -44955,7 +44955,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -44990,7 +44990,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -45021,7 +45021,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -45056,7 +45056,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -45087,7 +45087,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -45122,7 +45122,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -45168,7 +45168,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -45203,7 +45203,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -45234,7 +45234,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -45269,7 +45269,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -45300,7 +45300,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -45335,7 +45335,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -45366,7 +45366,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -45401,7 +45401,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -45432,7 +45432,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -45467,7 +45467,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -45498,7 +45498,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -45533,7 +45533,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -45579,7 +45579,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -45614,7 +45614,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -48816,10 +48816,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -48914,7 +48914,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -48949,7 +48949,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -48980,7 +48980,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -49015,7 +49015,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -49046,7 +49046,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -49081,7 +49081,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -49112,7 +49112,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -49150,7 +49150,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -49199,7 +49199,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -49234,7 +49234,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -49265,7 +49265,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -49300,7 +49300,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -49331,7 +49331,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -49366,7 +49366,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -49412,7 +49412,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -49450,7 +49450,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -49499,7 +49499,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -49534,7 +49534,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -49565,7 +49565,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -49600,7 +49600,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -49631,7 +49631,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -49666,7 +49666,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -49697,7 +49697,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -49732,7 +49732,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -49763,7 +49763,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -49798,7 +49798,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -49829,7 +49829,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -49864,7 +49864,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -49910,7 +49910,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -49945,7 +49945,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -49976,7 +49976,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -50011,7 +50011,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -50042,7 +50042,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -50077,7 +50077,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -50123,7 +50123,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -50158,7 +50158,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -50189,7 +50189,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -50224,7 +50224,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -50270,7 +50270,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -50305,7 +50305,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -50351,7 +50351,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -50386,7 +50386,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -50417,7 +50417,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -50452,7 +50452,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -50483,7 +50483,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -50518,7 +50518,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -50564,7 +50564,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -50599,7 +50599,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -50630,7 +50630,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -50665,7 +50665,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -50696,7 +50696,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -50731,7 +50731,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -50762,7 +50762,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -50797,7 +50797,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -50828,7 +50828,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -50863,7 +50863,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -50894,7 +50894,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -50929,7 +50929,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -50975,7 +50975,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -51010,7 +51010,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -54212,10 +54212,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -54319,7 +54319,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -54363,7 +54363,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -54402,7 +54402,7 @@
     </row>
     <row r="8" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -54446,7 +54446,7 @@
     </row>
     <row r="9" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -54485,7 +54485,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -54529,7 +54529,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -54562,7 +54562,7 @@
     </row>
     <row r="12" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -54603,7 +54603,7 @@
     </row>
     <row r="13" spans="1:18" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -54654,7 +54654,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -54692,7 +54692,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -54725,7 +54725,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -54763,7 +54763,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -54796,7 +54796,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -54834,7 +54834,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -54882,7 +54882,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -54923,7 +54923,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -54974,7 +54974,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -55012,7 +55012,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -55045,7 +55045,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -55083,7 +55083,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -55116,7 +55116,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -55154,7 +55154,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -55187,7 +55187,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -55225,7 +55225,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -55258,7 +55258,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -55296,7 +55296,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -55329,7 +55329,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -55367,7 +55367,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -55415,7 +55415,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -55453,7 +55453,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -55486,7 +55486,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -55524,7 +55524,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -55557,7 +55557,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -55595,7 +55595,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -55643,7 +55643,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -55681,7 +55681,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -55714,7 +55714,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -55752,7 +55752,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -55800,7 +55800,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -55838,7 +55838,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -55886,7 +55886,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -55924,7 +55924,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -55957,7 +55957,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -55995,7 +55995,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -56028,7 +56028,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -56066,7 +56066,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -56114,7 +56114,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -56152,7 +56152,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -56185,7 +56185,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -56223,7 +56223,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -56256,7 +56256,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -56294,7 +56294,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -56327,7 +56327,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -56365,7 +56365,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -56398,7 +56398,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -56436,7 +56436,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -56469,7 +56469,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -56507,7 +56507,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -56555,7 +56555,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -56593,7 +56593,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -59797,10 +59797,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -59901,7 +59901,7 @@
     </row>
     <row r="6" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>87</v>
@@ -59941,7 +59941,7 @@
     </row>
     <row r="7" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -59977,7 +59977,7 @@
     </row>
     <row r="8" spans="1:17" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>88</v>
@@ -60017,7 +60017,7 @@
     </row>
     <row r="9" spans="1:17" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -60053,7 +60053,7 @@
     </row>
     <row r="10" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -60093,7 +60093,7 @@
     </row>
     <row r="11" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -60124,7 +60124,7 @@
     </row>
     <row r="12" spans="1:17" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -60162,7 +60162,7 @@
     </row>
     <row r="13" spans="1:17" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -60211,7 +60211,7 @@
     </row>
     <row r="15" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -60246,7 +60246,7 @@
     </row>
     <row r="16" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -60277,7 +60277,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -60312,7 +60312,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -60343,7 +60343,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -60378,7 +60378,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -60424,7 +60424,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -60462,7 +60462,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -60511,7 +60511,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -60546,7 +60546,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -60577,7 +60577,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -60612,7 +60612,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -60643,7 +60643,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -60678,7 +60678,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -60709,7 +60709,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -60744,7 +60744,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -60775,7 +60775,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -60810,7 +60810,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -60841,7 +60841,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -60876,7 +60876,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -60922,7 +60922,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -60957,7 +60957,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -60988,7 +60988,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -61023,7 +61023,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -61054,7 +61054,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -61089,7 +61089,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -61135,7 +61135,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -61170,7 +61170,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -61201,7 +61201,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -61236,7 +61236,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -61282,7 +61282,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -61317,7 +61317,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -61363,7 +61363,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -61398,7 +61398,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -61429,7 +61429,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -61464,7 +61464,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -61495,7 +61495,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -61530,7 +61530,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -61576,7 +61576,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -61611,7 +61611,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -61642,7 +61642,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -61677,7 +61677,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -61708,7 +61708,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -61743,7 +61743,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -61774,7 +61774,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -61809,7 +61809,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -61840,7 +61840,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -61875,7 +61875,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -61906,7 +61906,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -61941,7 +61941,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -61987,7 +61987,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -62022,7 +62022,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
@@ -65224,8 +65224,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -65322,7 +65322,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>28</v>
@@ -65360,7 +65360,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>29</v>
@@ -65393,7 +65393,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>30</v>
@@ -65431,7 +65431,7 @@
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -65464,7 +65464,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>31</v>
@@ -65502,7 +65502,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>32</v>
@@ -65535,7 +65535,7 @@
     </row>
     <row r="12" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
@@ -65576,7 +65576,7 @@
     </row>
     <row r="13" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>32</v>
@@ -65627,7 +65627,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
@@ -65665,7 +65665,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>36</v>
@@ -65698,7 +65698,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>37</v>
@@ -65736,7 +65736,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>38</v>
@@ -65769,7 +65769,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>26</v>
@@ -65807,7 +65807,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>39</v>
@@ -65855,7 +65855,7 @@
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>40</v>
@@ -65896,7 +65896,7 @@
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>41</v>
@@ -65947,7 +65947,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>43</v>
@@ -65985,7 +65985,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
@@ -66018,7 +66018,7 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>45</v>
@@ -66056,7 +66056,7 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>46</v>
@@ -66089,7 +66089,7 @@
     </row>
     <row r="29" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>47</v>
@@ -66127,7 +66127,7 @@
     </row>
     <row r="30" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>48</v>
@@ -66160,7 +66160,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>49</v>
@@ -66198,7 +66198,7 @@
     </row>
     <row r="32" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>50</v>
@@ -66231,7 +66231,7 @@
     </row>
     <row r="33" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>51</v>
@@ -66269,7 +66269,7 @@
     </row>
     <row r="34" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>52</v>
@@ -66302,7 +66302,7 @@
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>53</v>
@@ -66340,7 +66340,7 @@
     </row>
     <row r="36" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>54</v>
@@ -66388,7 +66388,7 @@
     </row>
     <row r="38" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>56</v>
@@ -66426,7 +66426,7 @@
     </row>
     <row r="39" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>57</v>
@@ -66459,7 +66459,7 @@
     </row>
     <row r="40" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>58</v>
@@ -66497,7 +66497,7 @@
     </row>
     <row r="41" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>59</v>
@@ -66530,7 +66530,7 @@
     </row>
     <row r="42" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>60</v>
@@ -66568,7 +66568,7 @@
     </row>
     <row r="43" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>61</v>
@@ -66616,7 +66616,7 @@
     </row>
     <row r="45" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>24</v>
@@ -66654,7 +66654,7 @@
     </row>
     <row r="46" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>63</v>
@@ -66687,7 +66687,7 @@
     </row>
     <row r="47" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A47" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>25</v>
@@ -66725,7 +66725,7 @@
     </row>
     <row r="48" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A48" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>64</v>
@@ -66773,7 +66773,7 @@
     </row>
     <row r="50" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>66</v>
@@ -66811,7 +66811,7 @@
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>67</v>
@@ -66859,7 +66859,7 @@
     </row>
     <row r="53" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>17</v>
@@ -66897,7 +66897,7 @@
     </row>
     <row r="54" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>68</v>
@@ -66930,7 +66930,7 @@
     </row>
     <row r="55" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -66968,7 +66968,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>69</v>
@@ -67001,7 +67001,7 @@
     </row>
     <row r="57" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>19</v>
@@ -67039,7 +67039,7 @@
     </row>
     <row r="58" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>70</v>
@@ -67087,7 +67087,7 @@
     </row>
     <row r="60" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>71</v>
@@ -67125,7 +67125,7 @@
     </row>
     <row r="61" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>72</v>
@@ -67158,7 +67158,7 @@
     </row>
     <row r="62" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>73</v>
@@ -67196,7 +67196,7 @@
     </row>
     <row r="63" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>74</v>
@@ -67229,7 +67229,7 @@
     </row>
     <row r="64" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>75</v>
@@ -67267,7 +67267,7 @@
     </row>
     <row r="65" spans="1:12" s="62" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>76</v>
@@ -67300,7 +67300,7 @@
     </row>
     <row r="66" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>77</v>
@@ -67338,7 +67338,7 @@
     </row>
     <row r="67" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>78</v>
@@ -67371,7 +67371,7 @@
     </row>
     <row r="68" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>79</v>
@@ -67409,7 +67409,7 @@
     </row>
     <row r="69" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>80</v>
@@ -67442,7 +67442,7 @@
     </row>
     <row r="70" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>81</v>
@@ -67480,7 +67480,7 @@
     </row>
     <row r="71" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>82</v>
@@ -67528,7 +67528,7 @@
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>83</v>
@@ -67566,7 +67566,7 @@
     </row>
     <row r="74" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>84</v>
